--- a/biology/Botanique/Alectryon_(genre)/Alectryon_(genre).xlsx
+++ b/biology/Botanique/Alectryon_(genre)/Alectryon_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alectryon est un genre d'arbres de la famille des Sapindaceae qui se rencontrent dans les forêts pluviales de la zone Pacifique, en Malaisie et en Australie. 
 Ils atteignent une hauteur de 20 à 30 m. Les feuilles parcheminées sont pennées. les petites fleurs se situent au bout des tiges et se transforment en baies avec des grosses graines. Elles attirent les oiseaux.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon [réf. nécessaire] :
 Alectryon affinis – (New Guinea)
@@ -554,7 +568,7 @@
 Alectryon subdentatum – (Australia)
 Alectryon tomentosum – Hairy Alectryon, Woolly Rambutan, Hairy Bird's Eye (Australia, Brisbane)
 Alectryon unilobatus – (Australia)
-Selon NCBI  (12 Aug 2010)[2] :
+Selon NCBI  (12 Aug 2010) :
 Alectryon cardiocarpus
 Alectryon connatus
 Alectryon coriaceus
